--- a/data/부산_관광지명.xlsx
+++ b/data/부산_관광지명.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\busan_tourist\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projecthtml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18348" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,26 +315,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>안데르센</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동화마을</t>
-    </r>
+    <t>안데르센동화마을</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -355,7 +336,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>SUPZONE</t>
+      <t xml:space="preserve"> SUPZONE</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,13 +521,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -831,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -920,7 +901,7 @@
     </row>
     <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1023,13 +1004,13 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="8"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="2" t="s">
         <v>33</v>
       </c>

--- a/data/부산_관광지명.xlsx
+++ b/data/부산_관광지명.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projecthtml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell 3571\Desktop\진짜 중요. 소실되면 울 거임\스트림릿\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18348" windowHeight="5760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="171">
   <si>
     <t>남구</t>
   </si>
   <si>
-    <t>부산항대교</t>
-  </si>
-  <si>
     <t>부산박물관</t>
   </si>
   <si>
@@ -79,15 +76,9 @@
     <t>서구</t>
   </si>
   <si>
-    <t>송도해수욕장</t>
-  </si>
-  <si>
     <t>송도용궁구름다리</t>
   </si>
   <si>
-    <t>석당박물관</t>
-  </si>
-  <si>
     <t>남항대교</t>
   </si>
   <si>
@@ -109,15 +100,9 @@
     <t>수영구</t>
   </si>
   <si>
-    <t>광안대교</t>
-  </si>
-  <si>
     <t>사하구</t>
   </si>
   <si>
-    <t>감천문화마을</t>
-  </si>
-  <si>
     <t>부네치아</t>
   </si>
   <si>
@@ -125,12 +110,6 @@
   </si>
   <si>
     <t>다대포해수욕장</t>
-  </si>
-  <si>
-    <t>다대포꿈의낙조분수</t>
-  </si>
-  <si>
-    <t>낙동강하구에코센터</t>
   </si>
   <si>
     <r>
@@ -149,9 +128,6 @@
     <t>영도구</t>
   </si>
   <si>
-    <t>태종대</t>
-  </si>
-  <si>
     <t>아미르공원</t>
   </si>
   <si>
@@ -164,18 +140,12 @@
     <t>흰여울문화마을</t>
   </si>
   <si>
-    <t>깡깡이예술마을</t>
-  </si>
-  <si>
     <t>영도대교</t>
   </si>
   <si>
     <t>강서구</t>
   </si>
   <si>
-    <t>맥도생태공원</t>
-  </si>
-  <si>
     <t>강서체육공원</t>
   </si>
   <si>
@@ -185,9 +155,6 @@
     <t>금정구</t>
   </si>
   <si>
-    <t>회동수원지</t>
-  </si>
-  <si>
     <t>서동미로시장</t>
   </si>
   <si>
@@ -209,9 +176,6 @@
     <t>해운대구</t>
   </si>
   <si>
-    <t>영화의전당</t>
-  </si>
-  <si>
     <t>벡스코</t>
   </si>
   <si>
@@ -257,9 +221,6 @@
     <t>중구</t>
   </si>
   <si>
-    <t>국제시장</t>
-  </si>
-  <si>
     <t>자갈치시장</t>
   </si>
   <si>
@@ -288,9 +249,6 @@
   </si>
   <si>
     <t>동래구</t>
-  </si>
-  <si>
-    <t>동래읍성</t>
   </si>
   <si>
     <t>동래온천</t>
@@ -315,7 +273,491 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안데르센동화마을</t>
+    <t>용당동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대연4동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용호2동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용호1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초량1동</t>
+  </si>
+  <si>
+    <t>초량2동, 초량3동</t>
+  </si>
+  <si>
+    <t>일광읍</t>
+  </si>
+  <si>
+    <t>장안읍</t>
+  </si>
+  <si>
+    <t>철마면</t>
+  </si>
+  <si>
+    <t>장안읍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암남동</t>
+  </si>
+  <si>
+    <t>부민동</t>
+  </si>
+  <si>
+    <t>서대신3동</t>
+  </si>
+  <si>
+    <t>서대신4동</t>
+  </si>
+  <si>
+    <t>광안2동</t>
+  </si>
+  <si>
+    <t>감천2동</t>
+  </si>
+  <si>
+    <t>장림1동</t>
+  </si>
+  <si>
+    <t>다대1동</t>
+  </si>
+  <si>
+    <t>하단2동</t>
+  </si>
+  <si>
+    <t>동삼1동</t>
+  </si>
+  <si>
+    <t>영선2동</t>
+  </si>
+  <si>
+    <t>남항동</t>
+  </si>
+  <si>
+    <t>대저2동</t>
+  </si>
+  <si>
+    <t>대저1동</t>
+  </si>
+  <si>
+    <t>금사동, 선두구동</t>
+  </si>
+  <si>
+    <t>서2동</t>
+  </si>
+  <si>
+    <t>금성동</t>
+  </si>
+  <si>
+    <t>청룡노포동</t>
+  </si>
+  <si>
+    <t>삼락동</t>
+  </si>
+  <si>
+    <t>괘법동</t>
+  </si>
+  <si>
+    <t>광복동</t>
+  </si>
+  <si>
+    <t>남포동</t>
+  </si>
+  <si>
+    <t>보수동</t>
+  </si>
+  <si>
+    <t>광복동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전포1동</t>
+  </si>
+  <si>
+    <t>부전1동</t>
+  </si>
+  <si>
+    <t>전포2동</t>
+  </si>
+  <si>
+    <t>초읍동</t>
+  </si>
+  <si>
+    <t>우2동</t>
+  </si>
+  <si>
+    <t>우1동</t>
+  </si>
+  <si>
+    <t>중1동</t>
+  </si>
+  <si>
+    <t>좌동</t>
+  </si>
+  <si>
+    <t>송정동</t>
+  </si>
+  <si>
+    <t>화명 3동</t>
+  </si>
+  <si>
+    <t>화명1동</t>
+  </si>
+  <si>
+    <t>구포1동</t>
+  </si>
+  <si>
+    <t>복산동</t>
+  </si>
+  <si>
+    <t>온천1동</t>
+  </si>
+  <si>
+    <t>행정동명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전포</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동래읍성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광안대교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깡깡이예술마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해수욕장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해수욕장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다대포낙조분수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해수욕장</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전시형 시설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전시형 시설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자연공원</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자연공원</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산항대교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광교통시설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해수욕장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석당박물관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광유효면적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전시형 시설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태종대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회동수원지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전시형 시설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광교통시설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안데르센</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동화마을</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,8 +778,67 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> SUPZONE</t>
+      <t>SUPZONE</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙동강에코센터</t>
+  </si>
+  <si>
+    <t>송도해수욕장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감천문화마을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥도생태공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화의전당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국제시장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도심탐방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도심탐방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도심탐방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전시형 시설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜드마크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜드마크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산/사찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산/사찰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +883,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,18 +892,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -411,82 +906,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,38 +926,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -810,491 +1231,1618 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18.09765625" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="5">
+        <v>12000</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="5">
+        <v>500</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="5">
+        <v>300</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8000</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="5">
+        <v>400</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+      <c r="D26" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="5">
+        <v>800</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="7"/>
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="5">
+        <v>35000</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="7"/>
+      <c r="B30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="9"/>
-      <c r="B29" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="10"/>
-      <c r="B30" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="5">
+        <v>8000</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="5">
+        <v>12000</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="5">
+        <v>45000</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="5">
+        <v>8000</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="5">
+        <v>55000</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="5">
+        <v>800</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="5">
+        <v>12000</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="5">
+        <v>45000</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="5">
+        <v>30000</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="5">
+        <v>25000</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E61" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="5">
+        <v>8000</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="5">
+        <v>6000</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" s="5">
+        <v>600</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="5">
+        <v>3500</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E70" s="5">
+        <v>7000</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" s="5">
+        <v>12000</v>
+      </c>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/부산_관광지명.xlsx
+++ b/data/부산_관광지명.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell 3571\Desktop\진짜 중요. 소실되면 울 거임\스트림릿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\busan_tourist\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18072" windowHeight="5736"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -783,9 +783,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낙동강에코센터</t>
-  </si>
-  <si>
     <t>송도해수욕장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -839,6 +836,10 @@
   </si>
   <si>
     <t>산/사찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙동강하구에코센터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1234,7 +1235,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1279,7 +1280,7 @@
         <v>74</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" s="5">
         <v>1500</v>
@@ -1342,7 +1343,7 @@
         <v>76</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="5">
         <v>500</v>
@@ -1428,7 +1429,7 @@
         <v>80</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" s="5">
         <v>300</v>
@@ -1491,7 +1492,7 @@
         <v>81</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E12" s="5">
         <v>2500</v>
@@ -1512,7 +1513,7 @@
         <v>83</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" s="5">
         <v>3500</v>
@@ -1571,7 +1572,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>84</v>
@@ -1598,7 +1599,7 @@
         <v>84</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17" s="5">
         <v>400</v>
@@ -1640,7 +1641,7 @@
         <v>84</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19" s="5">
         <v>2000</v>
@@ -1661,7 +1662,7 @@
         <v>86</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E20" s="5">
         <v>10000</v>
@@ -1705,7 +1706,7 @@
         <v>78</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22" s="5">
         <v>2000</v>
@@ -1726,7 +1727,7 @@
         <v>79</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E23" s="5">
         <v>1500</v>
@@ -1749,7 +1750,7 @@
         <v>88</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E24" s="5">
         <v>5000</v>
@@ -1787,13 +1788,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E26" s="5">
         <v>3000</v>
@@ -1814,7 +1815,7 @@
         <v>90</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E27" s="5">
         <v>1500</v>
@@ -1835,7 +1836,7 @@
         <v>91</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E28" s="5">
         <v>800</v>
@@ -1892,7 +1893,7 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="4" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>92</v>
@@ -2026,7 +2027,7 @@
         <v>94</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E37" s="5">
         <v>1500</v>
@@ -2047,7 +2048,7 @@
         <v>95</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E38" s="5">
         <v>2000</v>
@@ -2068,7 +2069,7 @@
         <v>95</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E39" s="5">
         <v>1200</v>
@@ -2085,13 +2086,13 @@
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E40" s="5">
         <v>30000</v>
@@ -2198,7 +2199,7 @@
         <v>100</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E45" s="5">
         <v>5000</v>
@@ -2219,7 +2220,7 @@
         <v>101</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E46" s="5">
         <v>4000</v>
@@ -2280,7 +2281,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>150</v>
@@ -2328,7 +2329,7 @@
         <v>113</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E51" s="5">
         <v>2000</v>
@@ -2412,7 +2413,7 @@
         <v>115</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E55" s="5">
         <v>3000</v>
@@ -2456,7 +2457,7 @@
         <v>153</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E57" s="5">
         <v>1000</v>
@@ -2477,7 +2478,7 @@
         <v>108</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E58" s="5">
         <v>4000</v>
@@ -2540,7 +2541,7 @@
         <v>123</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E61" s="5">
         <v>2500</v>
@@ -2578,7 +2579,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>107</v>
@@ -2626,7 +2627,7 @@
         <v>105</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E65" s="5">
         <v>3000</v>
@@ -2668,7 +2669,7 @@
         <v>106</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E67" s="5">
         <v>600</v>
@@ -2777,7 +2778,7 @@
         <v>120</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E72" s="5">
         <v>5000</v>
